--- a/2020-07-15/web_tables/mae_cpi_wide.xlsx
+++ b/2020-07-15/web_tables/mae_cpi_wide.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
         <v>0.15</v>
       </c>
       <c r="D2">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E2">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="C3">
+        <v>0.22</v>
+      </c>
+      <c r="D3">
         <v>0.21</v>
       </c>
-      <c r="D3">
-        <v>0.19</v>
-      </c>
       <c r="E3">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -429,13 +429,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C4">
         <v>0.24</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E4">
         <v>0.23</v>
@@ -454,10 +454,10 @@
         <v>0.25</v>
       </c>
       <c r="D5">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E5">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C6">
         <v>0.26</v>
       </c>
       <c r="D6">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="E6">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="C7">
         <v>0.27</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E7">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
